--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3494.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3494.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8846497461454937</v>
+        <v>2.144963979721069</v>
       </c>
       <c r="B1">
-        <v>1.596487059642107</v>
+        <v>3.451892137527466</v>
       </c>
       <c r="C1">
-        <v>5.802222188595493</v>
+        <v>3.078772068023682</v>
       </c>
       <c r="D1">
-        <v>4.494574272939321</v>
+        <v>2.539528131484985</v>
       </c>
       <c r="E1">
-        <v>1.811507000693079</v>
+        <v>1.647209167480469</v>
       </c>
     </row>
   </sheetData>
